--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Tarapaca.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Tarapaca.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Re60c7d6adc5e4613"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R544b4f3c3c8146dd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1816645.0223951</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11684033.61791</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19144.159246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41313</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1792773.6732021</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10495235.971428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19102.287961</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41602</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1789778.3922407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10604148.114457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19620.423176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1746395.8221956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10790499.681203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18720.769836</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42016</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1752855.4019659</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10864233.397281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19688.900559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42249</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1858610.46794</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11385495.160419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22230.689150999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42475</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1879401.8453443</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10597487.025487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20154.400393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42757</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1819710.4885515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10854087.864179</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20754.910211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1862458.7983287</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12033778.871641</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19908.738058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43212</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1824576.4604045</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12915331.255572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21263.328355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43463</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1819537.4197133</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12867581.212893</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21400.113081</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43550</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1853225.1582319</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12914824.894419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21852.973456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43739</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1899381.3230755</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12673265.686098</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22558.185151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43873</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1923014.2349508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13914807.785607</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22180.069993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1907021.658302</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14787469.077844</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20726.664008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44110</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1919333.7803672</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14794445.58982</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23386.039691</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44577</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1917338.1005451</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14744430.919161</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25654.797482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44825</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1996185.7284774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14796082.669642</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24505.780553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45080</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2008744.297826</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15022786.461077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25028.496905</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45361</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1989246.243447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15094351.187592</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25819.697189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45573</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2028712.7999253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15402252.748159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25701.653993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45802</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1989460.7947687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15511999.5081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26236.645586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1982757.0393415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16038825.882267</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26603.863697</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46330</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2074690.2629829</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14722667.95671</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28179.710374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2085480.7638691</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14764603.304597</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28856.335838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46650</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2068075.2557127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15396920.134477</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28560.279827</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46996</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2043425.2674482</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15156014.014204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27076.249127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47305</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2044867.8419617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15696649.16452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27917.996588</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2040559.3420703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15963080.772206</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28971.194829</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47862</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2077821.6335924</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16104186.98</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28624.007647</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2084059.9705876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16473916.747863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30274.956258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2076184.7794566</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17391168.081545</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28544.023274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48691</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2090118.5369986</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17750488.723646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30188.451526</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2034341.5518044</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17345831.320567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30696.482641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2017072.7172814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17650281.825284</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28957.463681</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2042707.8106327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16630573.86338</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32518.081158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2124216.2183381</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16726613.88169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34157.685833</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49635</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2137085.7369598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16937972.282303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30581.179308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49889</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2109157.5228006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15859325.191011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31826.059066</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2044696.8268781</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16258319.787114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32151.544084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2031247.3068526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16849377.97226</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32992.39986</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50565</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2010376.9777514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15804372.252762</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33636.609657</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50773</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1977751.2006184</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15684058.916093</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34192.326272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1892115.0631452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16626285.084583</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31802.327589</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1915491.3913604</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16655874.425648</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33640.42456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1881336.9574596</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16418589.808625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34034.704204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51302</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1808413.8618962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17098027.165768</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32360.844494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51364</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1921142.1524219</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17607638.546558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34743.245525</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51466</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1919836.6963432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17445752.354054</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33031.826258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51523</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1907834.0382547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17918974.168463</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32692.837428</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1920065.4349194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18762269.200538</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33505.429304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51968</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1920724.1024476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18339010.350404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35285.63518</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1983243.157791</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17942750.272363</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36236.240728</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52354</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1968575.1895557</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17810687.230359</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37260.565296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1944267.6391081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17253673.153439</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35436.393168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1916536.5172237</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20088473.937254</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37413.693336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52999</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1927575.9476216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21258802.037371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40026.180735</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53265</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1878170.7678775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20752565.979643</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38182.143257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53517</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1865409.986266</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21277507.629582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39956.428086</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1978955.7033175</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20891200.196741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42647.194792</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53895</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1954758.9785508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19982324.998777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40900.891994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54086</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1972040.602374</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19966437.680437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40513.643246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54423</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1964604.3630817</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>830</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20004807.890361</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42539.532641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1939030.4824308</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19612402.476076</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41230.868543</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54977</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1937491.9670953</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18963449.585424</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44199.644213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1954779.25274</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19105018.210401</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46408.831995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958061.5733832</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18365527.611045</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43563.304169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55594</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1906661.8292081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18824037.838596</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45545.782862</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55798</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1968079.3873615</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17558301.783216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47577.158846</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56139</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1942274.2961399</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18047605.922632</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46558.497157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56418</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1873103.1772306</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17225486.040229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47561.854553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1976628.464018</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17421937.370709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51669.248461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56948</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1969820.3797148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16656406.32009</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49556.790625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1949881.2473428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17535112.827272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49764.213299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57720</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1925492.1281531</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17385926.463718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53597.144656</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1906960.3838232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13882947.05802</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53071.182641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58493</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1939930.733421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13853814.299203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56427.509715</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58862</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1964144.6132479</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13247498.178206</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57770.112145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1988651.0547006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13547728.531602</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55531.111008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1963272.1886959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14003033.181306</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58177.455281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59732</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2016260.5598674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14624383.349148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56482.856423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2042534.1589293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14926592.07971</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59538.186746</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2064456.4188197</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>826</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16790629.546004</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60818.174258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60670</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2170924.7448986</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16464040.619447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61487.69028</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60975</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2148182.2949241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15391160.553166</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65154.853427</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61130</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2156357.0793064</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15457895.075471</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64443.892038</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61385</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2265515.3520404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15810502.788665</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68666.061439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61307</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2483794.2460241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15657455.912529</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76457.725327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61183</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2609533.063498</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15400934.185141</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81235.607735</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2769936.7611881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15743693.086752</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83994.142552</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2888654.6911116</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15375351.066511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92400.074533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61274</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3049418.3361458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16457596.180327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>164450.804066</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61607</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3317748.0310841</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17103538.863218</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>163990.472977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62058</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3398468.4229269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18027477.328</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>150966.645956</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62553</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3319207.0654485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17916545.701136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135564.310186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3363482.9684259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17161257.68743</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>189870.510638</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>183158.665941</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>169436.913036</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>165261.534305</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>169953.051882</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>224759.873412</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>213064.80493</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>211582.419567</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>200801.401772</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>199919.984771</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>187992.123393</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>180914.365801</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>182259.217347</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>167257.185798</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>156401.701436</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>151397.568005</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>147817.190933</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>138702.960566</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>135707.971877</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>130471.560853</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>128045.059543</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>128335.082279</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>125746.107397</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>120471.829089</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>123472.499338</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>119247.850235</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>116202.708665</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>119354.63918</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>120422.939153</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>115498.908514</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>117747.489529</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>112096.411081</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>113622.887824</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>117911.933754</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>111691.057582</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>110017.121262</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>116311.524937</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>113232.064709</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>113664.619226</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>115338.28418</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>113998.614814</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>117448.850725</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>118120.572026</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>113576.435895</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
